--- a/biology/Zoologie/Caligo_beltrao/Caligo_beltrao.xlsx
+++ b/biology/Zoologie/Caligo_beltrao/Caligo_beltrao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Caligo beltrao  est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Morphinae et du genre Caligo.
 </t>
@@ -511,15 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caligo beltrao a été décrit par Johann Karl Wilhelm Illiger en 1801 sous le nom initial de Papilio beltrao[1].
-Synonymie
-Papilio demosthenes Perry, 1810
-Morpho reinwardtianus Drapiez, 1820
-Morpho inachis Godart, [1824]
-Noms vernaculaires
-Caligo beltrao se nomme Purple Owl en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo beltrao a été décrit par Johann Karl Wilhelm Illiger en 1801 sous le nom initial de Papilio beltrao.
 </t>
         </is>
       </c>
@@ -545,10 +553,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio demosthenes Perry, 1810
+Morpho reinwardtianus Drapiez, 1820
+Morpho inachis Godart, </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo beltrao se nomme Purple Owl en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Caligo beltrao est un grand papillon, d'une envergure d'environ 120 mm au bord externe des ailes festonné avec le dessus des ailes de couleur bleu ardoise à large bordure noire au bord externe et apex des ailes antérieures orange.
 Le revers est ocre doré marbré de gris argent avec un très gros ocelle noir cerclé de jaune sur chaque aile postérieure mimant les yeux d'un hibou ou d'une grenouille arboricole.
@@ -556,69 +641,146 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Caligo_beltrao</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Caligo_beltrao</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont Canna indica, Calathea zebrina, Musa sapientum et Hedychium coronarium[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Canna indica, Calathea zebrina, Musa sapientum et Hedychium coronarium.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Caligo_beltrao</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Caligo_beltrao</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caligo beltrao est présent au Brésil dans la région de Rio-de-Janeiro[1].
-Biotope
-Il réside dans la région de Rio-de-Janeiro.
-Protection
-Pas de statut de protection particulier
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo beltrao est présent au Brésil dans la région de Rio-de-Janeiro.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la région de Rio-de-Janeiro.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_beltrao</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
